--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value300.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value300.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.455784533224987</v>
+        <v>0.9148858785629272</v>
       </c>
       <c r="B1">
-        <v>1.512006164022784</v>
+        <v>1.580800175666809</v>
       </c>
       <c r="C1">
-        <v>1.654393452165993</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.412502299173743</v>
+        <v>2.484652280807495</v>
       </c>
       <c r="E1">
-        <v>1.591519856558172</v>
+        <v>1.382088184356689</v>
       </c>
     </row>
   </sheetData>
